--- a/ВыпискаБатчШаблон.xlsx
+++ b/ВыпискаБатчШаблон.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniilda/Desktop/Git/DoctorAi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27D6C0F-41B4-8543-82C8-79DADB926928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31661A19-2409-1148-985F-963F8D40C601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" xr2:uid="{C7D76715-49A2-5C48-A18C-BDB073B52A1C}"/>
+    <workbookView xWindow="35920" yWindow="1620" windowWidth="30240" windowHeight="17800" xr2:uid="{C7D76715-49A2-5C48-A18C-BDB073B52A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Пол пациента</t>
   </si>
@@ -64,6 +64,39 @@
   </si>
   <si>
     <t xml:space="preserve">Отчество </t>
+  </si>
+  <si>
+    <t>Муж</t>
+  </si>
+  <si>
+    <t>Аллен</t>
+  </si>
+  <si>
+    <t>Барри</t>
+  </si>
+  <si>
+    <t>Джэк</t>
+  </si>
+  <si>
+    <t>Биопсия</t>
+  </si>
+  <si>
+    <t>Онколог</t>
+  </si>
+  <si>
+    <t>Онкология</t>
+  </si>
+  <si>
+    <t>Ричардс</t>
+  </si>
+  <si>
+    <t>Джек</t>
+  </si>
+  <si>
+    <t>Джон</t>
+  </si>
+  <si>
+    <t>Простуда</t>
   </si>
 </sst>
 </file>
@@ -131,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -142,6 +175,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -456,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10CA885-EE24-C94A-90B2-821E803F487E}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,6 +557,47 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4">
+        <v>36907</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ВыпискаБатчШаблон.xlsx
+++ b/ВыпискаБатчШаблон.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniilda/Desktop/Git/DoctorAi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31661A19-2409-1148-985F-963F8D40C601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AFA2CF-D301-B643-B69B-E47940C78807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35920" yWindow="1620" windowWidth="30240" windowHeight="17800" xr2:uid="{C7D76715-49A2-5C48-A18C-BDB073B52A1C}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,17 +116,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,18 +168,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -493,108 +498,109 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="30.1640625" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="30.1640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17" style="4" customWidth="1"/>
+    <col min="12" max="12" width="16" style="4" customWidth="1"/>
+    <col min="13" max="13" width="20.83203125" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>36907</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>123</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>22</v>
       </c>
     </row>

--- a/ВыпискаБатчШаблон.xlsx
+++ b/ВыпискаБатчШаблон.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniilda/Desktop/Git/DoctorAi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AFA2CF-D301-B643-B69B-E47940C78807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B769E9AA-EAF9-8B40-8502-B40D3CADD15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35920" yWindow="1620" windowWidth="30240" windowHeight="17800" xr2:uid="{C7D76715-49A2-5C48-A18C-BDB073B52A1C}"/>
+    <workbookView xWindow="25720" yWindow="2100" windowWidth="30240" windowHeight="17800" xr2:uid="{C7D76715-49A2-5C48-A18C-BDB073B52A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ВыпискаБатчШаблон.xlsx
+++ b/ВыпискаБатчШаблон.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniilda/Desktop/Git/DoctorAi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B769E9AA-EAF9-8B40-8502-B40D3CADD15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C023E8F6-BF31-924E-A725-93C5DC84AB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25720" yWindow="2100" windowWidth="30240" windowHeight="17800" xr2:uid="{C7D76715-49A2-5C48-A18C-BDB073B52A1C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="27220" xr2:uid="{C7D76715-49A2-5C48-A18C-BDB073B52A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Пол пациента</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Простуда</t>
+  </si>
+  <si>
+    <t>16.01.2001</t>
   </si>
 </sst>
 </file>
@@ -180,7 +183,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -498,7 +501,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:XFD1048576"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,8 +570,8 @@
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5">
-        <v>36907</v>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>

--- a/ВыпискаБатчШаблон.xlsx
+++ b/ВыпискаБатчШаблон.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniilda/Desktop/Git/DoctorAi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C023E8F6-BF31-924E-A725-93C5DC84AB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA89474-0CA3-6640-8360-F8098BBEE0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="27220" xr2:uid="{C7D76715-49A2-5C48-A18C-BDB073B52A1C}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Пол пациента</t>
   </si>
   <si>
-    <t>Дата рождения пациента</t>
-  </si>
-  <si>
     <t>Фамилия Пациента</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Джэк</t>
   </si>
   <si>
-    <t>Биопсия</t>
-  </si>
-  <si>
     <t>Онколог</t>
   </si>
   <si>
@@ -99,7 +93,7 @@
     <t>Простуда</t>
   </si>
   <si>
-    <t>16.01.2001</t>
+    <t>Биопсия;Лабораторный анализ мазка из носа</t>
   </si>
 </sst>
 </file>
@@ -171,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -183,7 +177,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -498,31 +491,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10CA885-EE24-C94A-90B2-821E803F487E}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="30.1640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16" style="4" customWidth="1"/>
-    <col min="13" max="13" width="20.83203125" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="15" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="30.1640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16" style="4" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +542,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -559,19 +551,16 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
@@ -579,32 +568,29 @@
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="4">
+        <v>123</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4">
-        <v>123</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/ВыпискаБатчШаблон.xlsx
+++ b/ВыпискаБатчШаблон.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniilda/Desktop/Git/DoctorAi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA89474-0CA3-6640-8360-F8098BBEE0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E3F148-6F6F-AB44-97A7-928066C19DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="27220" xr2:uid="{C7D76715-49A2-5C48-A18C-BDB073B52A1C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Пол пациента</t>
   </si>
@@ -66,24 +66,12 @@
     <t>Муж</t>
   </si>
   <si>
-    <t>Аллен</t>
-  </si>
-  <si>
     <t>Барри</t>
   </si>
   <si>
     <t>Джэк</t>
   </si>
   <si>
-    <t>Онколог</t>
-  </si>
-  <si>
-    <t>Онкология</t>
-  </si>
-  <si>
-    <t>Ричардс</t>
-  </si>
-  <si>
     <t>Джек</t>
   </si>
   <si>
@@ -93,7 +81,31 @@
     <t>Простуда</t>
   </si>
   <si>
-    <t>Биопсия;Лабораторный анализ мазка из носа</t>
+    <t>Кузнецов</t>
+  </si>
+  <si>
+    <t>Клинический осмотр</t>
+  </si>
+  <si>
+    <t>Терапевт</t>
+  </si>
+  <si>
+    <t>Терапия</t>
+  </si>
+  <si>
+    <t>Картер</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
+  </si>
+  <si>
+    <t>Аутоиммунный тиреоидит</t>
+  </si>
+  <si>
+    <t>Клинический осмотр;Консультация эндокринолога</t>
+  </si>
+  <si>
+    <t>Джоан</t>
   </si>
 </sst>
 </file>
@@ -491,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10CA885-EE24-C94A-90B2-821E803F487E}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -560,37 +572,75 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="E2" s="4">
         <v>123</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4">
+        <v>123</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ВыпискаБатчШаблон.xlsx
+++ b/ВыпискаБатчШаблон.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniilda/Desktop/Git/DoctorAi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E3F148-6F6F-AB44-97A7-928066C19DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F021879-42A2-0742-96F4-19B3346690CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="27220" xr2:uid="{C7D76715-49A2-5C48-A18C-BDB073B52A1C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Пол пациента</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Джоан</t>
+  </si>
+  <si>
+    <t>Илья</t>
   </si>
 </sst>
 </file>
@@ -503,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10CA885-EE24-C94A-90B2-821E803F487E}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,6 +646,44 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4">
+        <v>123</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ВыпискаБатчШаблон.xlsx
+++ b/ВыпискаБатчШаблон.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniilda/Desktop/Git/DoctorAi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F021879-42A2-0742-96F4-19B3346690CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4B766D-1968-A64E-9EFC-24B206DD44C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="27220" xr2:uid="{C7D76715-49A2-5C48-A18C-BDB073B52A1C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Пол пациента</t>
   </si>
@@ -66,18 +66,6 @@
     <t>Муж</t>
   </si>
   <si>
-    <t>Барри</t>
-  </si>
-  <si>
-    <t>Джэк</t>
-  </si>
-  <si>
-    <t>Джек</t>
-  </si>
-  <si>
-    <t>Джон</t>
-  </si>
-  <si>
     <t>Простуда</t>
   </si>
   <si>
@@ -93,9 +81,6 @@
     <t>Терапия</t>
   </si>
   <si>
-    <t>Картер</t>
-  </si>
-  <si>
     <t>Андреевич</t>
   </si>
   <si>
@@ -105,10 +90,67 @@
     <t>Клинический осмотр;Консультация эндокринолога</t>
   </si>
   <si>
-    <t>Джоан</t>
-  </si>
-  <si>
     <t>Илья</t>
+  </si>
+  <si>
+    <t>Даниил</t>
+  </si>
+  <si>
+    <t>Антонов</t>
+  </si>
+  <si>
+    <t>Олегович</t>
+  </si>
+  <si>
+    <t>Данильчук</t>
+  </si>
+  <si>
+    <t>Денис</t>
+  </si>
+  <si>
+    <t>Александрович</t>
+  </si>
+  <si>
+    <t>Навальный</t>
+  </si>
+  <si>
+    <t>Олег</t>
+  </si>
+  <si>
+    <t>Иванович</t>
+  </si>
+  <si>
+    <t>Левонская</t>
+  </si>
+  <si>
+    <t>Жен</t>
+  </si>
+  <si>
+    <t>Елена</t>
+  </si>
+  <si>
+    <t>Яковлевна</t>
+  </si>
+  <si>
+    <t>Корнева</t>
+  </si>
+  <si>
+    <t>Дарья</t>
+  </si>
+  <si>
+    <t>Сергеевна</t>
+  </si>
+  <si>
+    <t>Врач-дерматолог</t>
+  </si>
+  <si>
+    <t>Дерматология</t>
+  </si>
+  <si>
+    <t>Папулезный эласторексис</t>
+  </si>
+  <si>
+    <t>Гистологическое исследование;Генетическое тестирование</t>
   </si>
 </sst>
 </file>
@@ -509,7 +551,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,37 +617,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="E2" s="4">
         <v>123</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -613,75 +655,75 @@
         <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4">
         <v>123</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E4" s="4">
         <v>123</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
